--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="13395" windowHeight="10545"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>&lt;rm:#foreach($row in $rows)&gt;</t>
   </si>
@@ -70,17 +70,27 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>$row.date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>"$row.name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00[$р.-419]"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
@@ -224,17 +234,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Акцент5" xfId="1" builtinId="45"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Accent5" xfId="1" builtinId="45"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -287,7 +299,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -321,6 +333,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -355,9 +368,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -530,14 +544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
@@ -545,7 +559,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -559,71 +573,80 @@
         <v>17</v>
       </c>
       <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -631,24 +654,24 @@
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -660,24 +683,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="360" yWindow="75" windowWidth="13395" windowHeight="10545"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
@@ -548,7 +548,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
